--- a/model_scores1_test.xlsx
+++ b/model_scores1_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LouiseDupuis\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LouiseDupuis\Documents\PythonSUTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85BC1385-A463-4B11-A7D4-DBF2BD181A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3267DDC-F68F-4589-A6BA-719B5E77BC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="1610" windowWidth="16290" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,6 +405,12 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
